--- a/export/Application Data Requirements_120312.xlsx
+++ b/export/Application Data Requirements_120312.xlsx
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>45363.61067076389</v>
+        <v>45363.78160517361</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
